--- a/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>98.41</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.06</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>99.23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.79</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0921</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -631,4 +632,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002810</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信转型创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.54</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002862</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金信量化精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>72.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>41.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,98 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -935,4 +936,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,17 +956,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -975,14 +996,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.08</v>
+          <t>006252</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -991,14 +1034,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3891</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1007,14 +1072,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.09</v>
+          <t>006253</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>永赢消费主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3817</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1023,13 +1110,759 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>398061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中海消费混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1347</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005265</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0970</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000166</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中海信息产业精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002411</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0471</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005266</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时厚泽回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008212</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1761,7 +1762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1772,17 +1773,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1792,14 +1813,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.05</v>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1808,14 +1851,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="4">
@@ -1824,14 +1957,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="5">
@@ -1840,14 +1973,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
@@ -1856,13 +1989,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1894,7 +1895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1905,17 +1906,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1925,11 +1946,85 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.02</v>
@@ -1941,14 +2036,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>3.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="4">
@@ -1957,14 +2052,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="5">
@@ -1973,14 +2068,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="6">
@@ -1989,14 +2084,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -2005,13 +2100,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.13</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="3">
@@ -504,11 +505,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0.02</v>
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>3.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>1</v>
       </c>
       <c r="D8" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003822</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003823</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信建投行业轮换混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007468</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007469</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投策略精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014246</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014247</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大摩现代服务业混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>66.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,7 +1108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,7 +1240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1641,7 +2056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1735,7 +2150,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1943,7 +2358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2037,7 +2452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
+++ b/数据整理/stocks/A股/深证主板/002273-水晶光电.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>0.22</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="4">
@@ -521,11 +522,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
         <v>0.02</v>
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>3.05</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
       <c r="D9" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -616,7 +633,1863 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515760</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证浙江国资创新发展ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1313</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>68.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5177</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4350</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2893</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2212</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1933</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1577</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014329</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009613</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014588</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009614</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014587</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008113</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014330</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>65.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008112</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>016935</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +2887,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1108,7 +2981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1240,7 +3113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2056,7 +3929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2150,7 +4023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2358,7 +4231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2450,98 +4323,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515760</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏中证浙江国资创新发展ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.41</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1313</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>